--- a/GATEWAY/A1#111MEDIACLINICS/MEDIACLINICS_ITALIA/MARGHERITATRE/V.3.3.0/accreditamento-MEDIACLINICS_ITALIA-checklist_V4.1.xlsx
+++ b/GATEWAY/A1#111MEDIACLINICS/MEDIACLINICS_ITALIA/MARGHERITATRE/V.3.3.0/accreditamento-MEDIACLINICS_ITALIA-checklist_V4.1.xlsx
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="142">
   <si>
     <t xml:space="preserve">PREREQUISITI</t>
   </si>
@@ -360,7 +360,8 @@
     <t xml:space="preserve">UNKNOWN_WORKFLOW_ID</t>
   </si>
   <si>
-    <t xml:space="preserve">Viene segnalato all'operatore un errore con il Gateway e si richiede di provare più tardi.</t>
+    <t xml:space="preserve">In questo caso il documento risulterà rifiutato con motivazione di JWT Token non valido all’interno dell’applicativo.
+L'utente avrà la possibilità di risottomettere il documento LDO, rendendolo definitivo, ripassando dallo step di validazione (le informazioni precedentemente inserite nella LDO rimangono comunque salvate nell’applicativo).</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_CAMPO_LDO_KO</t>
@@ -429,7 +430,7 @@
 Per questo caso di test è richiesta la  sola descrizione del comportamento a fronte di un timeout, da inserire nella colonna "J" nominata come "GESTIONE ERRORE".</t>
   </si>
   <si>
-    <t xml:space="preserve">Viene segnalato un'errore di timeout e si chiede di provare più tardi.</t>
+    <t xml:space="preserve">Viene segnalato all’utente un errore di timeout da parte del Gateway, ma il documento rimane in coda di invio (con successivi tentativi automatici) nell’attesa di una risposta positiva da parte del Gateway.</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT5_KO</t>
@@ -449,7 +450,18 @@
     <t xml:space="preserve">2.16.840.1.113883.2.9.2.80.1.1.1dd306de0de59f6790e5c6d343934d3682f111a52a98e148274074dcffdf2877.a6daa31ff6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t xml:space="preserve">Viene segnalato all'operatore di ricontrollare i campi compilati in quanto non tutti i campi sono stati compilati correttamente o ci sono dei campi vuoti.</t>
+    <t xml:space="preserve">Il sistema prevede due livelli di verifica dei dati. 
+Il primo livello di controllo avviene all'interno dell'applicativo stesso, nel momento in cui l'utente tenta di inviare il documento al servizio implementato. 
+In questa fase, l'applicativo effettua una serie di controlli sui dati inseriti dall'utente, verificando che siano conformi alle regole di validazione definite.  
+Qualora l'applicativo rilevi che i dati non sono corretti, l'utente viene avvisato immediatamente e gli viene richiesto di correggere gli errori prima di procedere all'invio del documento. 
+Questo primo livello di controllo permette di prevenire eventuali errori di inserimento da parte dell'utente e di ridurre il rischio di invio di documenti con dati non corretti.  
+Il secondo livello di controllo, invece, avviene a livello del servizio stesso, dopo che l'applicativo ha inviato il documento al Gateway. 
+In questa fase il Gateway verifica la correttezza dei dati e la loro conformità alle regole di validazione definite.  
+Qualora il Gateway rilevi che i dati non sono corretti, invia una risposta negativa al servizio, il quale a sua volta comunica all'applicativo il rifiuto e la motivazione dello stesso (come comunicata dal Gateway). 
+L’applicativo prevede una pagina di controllo dello stato dei documenti nel quale viene riportata la motivazione del rifiuto del documento in caso di esito negativo. 
+Messaggi mostrati all’utente:
+Errore controllo 1: “Codice fiscale dell’utente mancante”
+Errore controllo 2: “Codice fiscale dell’utente mancante”</t>
   </si>
   <si>
     <t xml:space="preserve">Ulteriore controllo su applicativo lunghezza CF.</t>
@@ -472,7 +484,18 @@
     <t xml:space="preserve">2.16.840.1.113883.2.9.2.80.1.1.1dd306de0de59f6790e5c6d343934d3682f111a52a98e148274074dcffdf2877.9246e1bbf1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t xml:space="preserve">Viene segnalato all'utente di ricontrollare i campi compilati in quanto alcuni dati passati non vengono riconosciuti.</t>
+    <t xml:space="preserve">Il sistema prevede due livelli di verifica dei dati. 
+Il primo livello di controllo avviene all'interno dell'applicativo stesso, nel momento in cui l'utente tenta di inviare il documento al servizio implementato. 
+In questa fase, l'applicativo effettua una serie di controlli sui dati inseriti dall'utente, verificando che siano conformi alle regole di validazione definite.  
+Qualora l'applicativo rilevi che i dati non sono corretti, l'utente viene avvisato immediatamente e gli viene richiesto di correggere gli errori prima di procedere all'invio del documento. 
+Questo primo livello di controllo permette di prevenire eventuali errori di inserimento da parte dell'utente e di ridurre il rischio di invio di documenti con dati non corretti.  
+Il secondo livello di controllo, invece, avviene a livello del servizio stesso, dopo che l'applicativo ha inviato il documento al Gateway. 
+In questa fase il Gateway verifica la correttezza dei dati e la loro conformità alle regole di validazione definite.  
+Qualora il Gateway rilevi che i dati non sono corretti, invia una risposta negativa al servizio, il quale a sua volta comunica all'applicativo il rifiuto e la motivazione dello stesso (come comunicata dal Gateway). 
+L’applicativo prevede una pagina di controllo dello stato dei documenti nel quale viene riportata la motivazione del rifiuto del documento in caso di esito negativo. 
+Messaggi mostrati all’utente:
+Errore controllo 1: “Codice fiscale dell’utente inserito contiene dei caratteri minuscoli.”
+Errore controllo 2: “Codice fiscale dell’utente inserito contiene dei caratteri minuscoli.”</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT7_KO</t>
@@ -489,6 +512,20 @@
     <t xml:space="preserve">2.16.840.1.113883.2.9.2.80.1.1.1dd306de0de59f6790e5c6d343934d3682f111a52a98e148274074dcffdf2877.6e42f22235^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
+    <t xml:space="preserve">Il sistema prevede due livelli di verifica dei dati. 
+Il primo livello di controllo avviene all'interno dell'applicativo stesso, nel momento in cui l'utente tenta di inviare il documento al servizio implementato. 
+In questa fase, l'applicativo effettua una serie di controlli sui dati inseriti dall'utente, verificando che siano conformi alle regole di validazione definite.  
+Qualora l'applicativo rilevi che i dati non sono corretti, l'utente viene avvisato immediatamente e gli viene richiesto di correggere gli errori prima di procedere all'invio del documento. 
+Questo primo livello di controllo permette di prevenire eventuali errori di inserimento da parte dell'utente e di ridurre il rischio di invio di documenti con dati non corretti.  
+Il secondo livello di controllo, invece, avviene a livello del servizio stesso, dopo che l'applicativo ha inviato il documento al Gateway. 
+In questa fase il Gateway verifica la correttezza dei dati e la loro conformità alle regole di validazione definite.  
+Qualora il Gateway rilevi che i dati non sono corretti, invia una risposta negativa al servizio, il quale a sua volta comunica all'applicativo il rifiuto e la motivazione dello stesso (come comunicata dal Gateway). 
+L’applicativo prevede una pagina di controllo dello stato dei documenti nel quale viene riportata la motivazione del rifiuto del documento in caso di esito negativo. 
+Messaggi mostrati all’utente:
+Errore controllo 1: “Livello di confidenzialità del documento non conforme alle specifiche di validazione.”
+Errore controllo 2: “Livello di confidenzialità del documento non conforme alle specifiche di validazione..”</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT8_KO</t>
   </si>
   <si>
@@ -506,6 +543,20 @@
     <t xml:space="preserve">2.16.840.1.113883.2.9.2.80.1.1.1dd306de0de59f6790e5c6d343934d3682f111a52a98e148274074dcffdf2877.1d8375c2f7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
+    <t xml:space="preserve">Il sistema prevede due livelli di verifica dei dati. 
+Il primo livello di controllo avviene all'interno dell'applicativo stesso, nel momento in cui l'utente tenta di inviare il documento al servizio implementato. 
+In questa fase, l'applicativo effettua una serie di controlli sui dati inseriti dall'utente, verificando che siano conformi alle regole di validazione definite.  
+Qualora l'applicativo rilevi che i dati non sono corretti, l'utente viene avvisato immediatamente e gli viene richiesto di correggere gli errori prima di procedere all'invio del documento. 
+Questo primo livello di controllo permette di prevenire eventuali errori di inserimento da parte dell'utente e di ridurre il rischio di invio di documenti con dati non corretti.  
+Il secondo livello di controllo, invece, avviene a livello del servizio stesso, dopo che l'applicativo ha inviato il documento al Gateway. 
+In questa fase il Gateway verifica la correttezza dei dati e la loro conformità alle regole di validazione definite.  
+Qualora il Gateway rilevi che i dati non sono corretti, invia una risposta negativa al servizio, il quale a sua volta comunica all'applicativo il rifiuto e la motivazione dello stesso (come comunicata dal Gateway). 
+L’applicativo prevede una pagina di controllo dello stato dei documenti nel quale viene riportata la motivazione del rifiuto del documento in caso di esito negativo. 
+Messaggi mostrati all’utente:
+Errore controllo 1: “Comune di residenza del paziente mancante.”
+Errore controllo 2: “Comune di residenza del paziente mancante.”</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT9_KO</t>
   </si>
   <si>
@@ -523,6 +574,20 @@
     <t xml:space="preserve">2.16.840.1.113883.2.9.2.80.1.1.1dd306de0de59f6790e5c6d343934d3682f111a52a98e148274074dcffdf2877.0c3e90b828^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
+    <t xml:space="preserve">Il sistema prevede due livelli di verifica dei dati. 
+Il primo livello di controllo avviene all'interno dell'applicativo stesso, nel momento in cui l'utente tenta di inviare il documento al servizio implementato. 
+In questa fase, l'applicativo effettua una serie di controlli sui dati inseriti dall'utente, verificando che siano conformi alle regole di validazione definite.  
+Qualora l'applicativo rilevi che i dati non sono corretti, l'utente viene avvisato immediatamente e gli viene richiesto di correggere gli errori prima di procedere all'invio del documento. 
+Questo primo livello di controllo permette di prevenire eventuali errori di inserimento da parte dell'utente e di ridurre il rischio di invio di documenti con dati non corretti.  
+Il secondo livello di controllo, invece, avviene a livello del servizio stesso, dopo che l'applicativo ha inviato il documento al Gateway. 
+In questa fase il Gateway verifica la correttezza dei dati e la loro conformità alle regole di validazione definite.  
+Qualora il Gateway rilevi che i dati non sono corretti, invia una risposta negativa al servizio, il quale a sua volta comunica all'applicativo il rifiuto e la motivazione dello stesso (come comunicata dal Gateway). 
+L’applicativo prevede una pagina di controllo dello stato dei documenti nel quale viene riportata la motivazione del rifiuto del documento in caso di esito negativo. 
+Messaggi mostrati all’utente:
+Errore controllo 1: “Nome del paziente mancante.”
+Errore controllo 2: “Nome del paziente mancante.”</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT10_KO</t>
   </si>
   <si>
@@ -540,7 +605,18 @@
     <t xml:space="preserve">2.16.840.1.113883.2.9.2.80.1.1.1dd306de0de59f6790e5c6d343934d3682f111a52a98e148274074dcffdf2877.fb401a1a42^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t xml:space="preserve">Viene segnalato all'utente della presenza di un errore di vocabolario. Si invita a ricontrollare i campi in quanto un dato non riconosciuto è stato passato.</t>
+    <t xml:space="preserve">Il sistema prevede due livelli di verifica dei dati. 
+Il primo livello di controllo avviene all'interno dell'applicativo stesso, nel momento in cui l'utente tenta di inviare il documento al servizio implementato. 
+In questa fase, l'applicativo effettua una serie di controlli sui dati inseriti dall'utente, verificando che siano conformi alle regole di validazione definite.  
+Qualora l'applicativo rilevi che i dati non sono corretti, l'utente viene avvisato immediatamente e gli viene richiesto di correggere gli errori prima di procedere all'invio del documento. 
+Questo primo livello di controllo permette di prevenire eventuali errori di inserimento da parte dell'utente e di ridurre il rischio di invio di documenti con dati non corretti.  
+Il secondo livello di controllo, invece, avviene a livello del servizio stesso, dopo che l'applicativo ha inviato il documento al Gateway. 
+In questa fase il Gateway verifica la correttezza dei dati e la loro conformità alle regole di validazione definite.  
+Qualora il Gateway rilevi che i dati non sono corretti, invia una risposta negativa al servizio, il quale a sua volta comunica all'applicativo il rifiuto e la motivazione dello stesso (come comunicata dal Gateway). 
+L’applicativo prevede una pagina di controllo dello stato dei documenti nel quale viene riportata la motivazione del rifiuto del documento in caso di esito negativo. 
+Messaggi mostrati all’utente:
+Errore controllo 1: “Sesso del paziente selezionato non conforme con le specifiche di validazione.”
+Errore controllo 2: “Sesso del paziente selezionato non conforme con le specifiche di validazione.”</t>
   </si>
   <si>
     <t xml:space="preserve">Generi presenti sull'applicativo: "M" e "F"</t>
@@ -563,6 +639,20 @@
     <t xml:space="preserve">2.16.840.1.113883.2.9.2.80.1.1.1dd306de0de59f6790e5c6d343934d3682f111a52a98e148274074dcffdf2877.b37a32b92b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
+    <t xml:space="preserve">Il sistema prevede due livelli di verifica dei dati. 
+Il primo livello di controllo avviene all'interno dell'applicativo stesso, nel momento in cui l'utente tenta di inviare il documento al servizio implementato. 
+In questa fase, l'applicativo effettua una serie di controlli sui dati inseriti dall'utente, verificando che siano conformi alle regole di validazione definite.  
+Qualora l'applicativo rilevi che i dati non sono corretti, l'utente viene avvisato immediatamente e gli viene richiesto di correggere gli errori prima di procedere all'invio del documento. 
+Questo primo livello di controllo permette di prevenire eventuali errori di inserimento da parte dell'utente e di ridurre il rischio di invio di documenti con dati non corretti.  
+Il secondo livello di controllo, invece, avviene a livello del servizio stesso, dopo che l'applicativo ha inviato il documento al Gateway. 
+In questa fase il Gateway verifica la correttezza dei dati e la loro conformità alle regole di validazione definite.  
+Qualora il Gateway rilevi che i dati non sono corretti, invia una risposta negativa al servizio, il quale a sua volta comunica all'applicativo il rifiuto e la motivazione dello stesso (come comunicata dal Gateway). 
+L’applicativo prevede una pagina di controllo dello stato dei documenti nel quale viene riportata la motivazione del rifiuto del documento in caso di esito negativo. 
+Messaggi mostrati all’utente:
+Errore controllo 1: “Informazioni inerenti alla Diagnosi alla dimissione o Condizioni del paziente alla dimissione mancanti.”
+Errore controllo 2: “Informazioni inerenti alla Diagnosi alla dimissione o Condizioni del paziente alla dimissione mancanti.”</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT12_KO</t>
   </si>
   <si>
@@ -580,6 +670,20 @@
     <t xml:space="preserve">2.16.840.1.113883.2.9.2.80.1.1.1dd306de0de59f6790e5c6d343934d3682f111a52a98e148274074dcffdf2877.78835af928^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
+    <t xml:space="preserve">Il sistema prevede due livelli di verifica dei dati. 
+Il primo livello di controllo avviene all'interno dell'applicativo stesso, nel momento in cui l'utente tenta di inviare il documento al servizio implementato. 
+In questa fase, l'applicativo effettua una serie di controlli sui dati inseriti dall'utente, verificando che siano conformi alle regole di validazione definite.  
+Qualora l'applicativo rilevi che i dati non sono corretti, l'utente viene avvisato immediatamente e gli viene richiesto di correggere gli errori prima di procedere all'invio del documento. 
+Questo primo livello di controllo permette di prevenire eventuali errori di inserimento da parte dell'utente e di ridurre il rischio di invio di documenti con dati non corretti.  
+Il secondo livello di controllo, invece, avviene a livello del servizio stesso, dopo che l'applicativo ha inviato il documento al Gateway. 
+In questa fase il Gateway verifica la correttezza dei dati e la loro conformità alle regole di validazione definite.  
+Qualora il Gateway rilevi che i dati non sono corretti, invia una risposta negativa al servizio, il quale a sua volta comunica all'applicativo il rifiuto e la motivazione dello stesso (come comunicata dal Gateway). 
+L’applicativo prevede una pagina di controllo dello stato dei documenti nel quale viene riportata la motivazione del rifiuto del documento in caso di esito negativo. 
+Messaggi mostrati all’utente:
+Errore controllo 1: “Informazioni inerenti al Decorso Ospedaliero mancanti.”
+Errore controllo 2: “Informazioni inerenti al Decorso Ospedaliero mancanti.”</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT13_KO</t>
   </si>
   <si>
@@ -611,6 +715,18 @@
   </si>
   <si>
     <t xml:space="preserve">2.16.840.1.113883.2.9.2.80.1.1.1dd306de0de59f6790e5c6d343934d3682f111a52a98e148274074dcffdf2877.94132ec4c2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il sistema prevede due livelli di verifica dei dati. 
+Il primo livello di controllo avviene all'interno dell'applicativo stesso, nel momento in cui l'utente tenta di inviare il documento al servizio implementato. 
+In questa fase, l'applicativo effettua una serie di controlli sui dati inseriti dall'utente, verificando che siano conformi alle regole di validazione definite.  
+Qualora l'applicativo rilevi che i dati non sono corretti, l'utente viene avvisato immediatamente e gli viene richiesto di correggere gli errori prima di procedere all'invio del documento. 
+Questo primo livello di controllo permette di prevenire eventuali errori di inserimento da parte dell'utente e di ridurre il rischio di invio di documenti con dati non corretti.  
+Il secondo livello di controllo, invece, avviene a livello del servizio stesso, dopo che l'applicativo ha inviato il documento al Gateway. 
+In questa fase il Gateway verifica la correttezza dei dati e la loro conformità alle regole di validazione definite.  
+Qualora il Gateway rilevi che i dati non sono corretti, invia una risposta negativa al servizio, il quale a sua volta comunica all'applicativo il rifiuto e la motivazione dello stesso (come comunicata dal Gateway). 
+L’applicativo prevede una pagina di controllo dello stato dei documenti nel quale viene riportata la motivazione del rifiuto del documento in caso di esito negativo. 
+L’errore generato viene gestito dall’amministratore di sistema in back office.</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT16_KO</t>
@@ -2383,11 +2499,11 @@
   <dimension ref="A1:Z873"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="E26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="G10" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
-      <selection pane="bottomRight" activeCell="F29" activeCellId="0" sqref="F29"/>
+      <selection pane="topRight" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="bottomRight" activeCell="J15" activeCellId="0" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.43359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2949,7 +3065,7 @@
         <v>75</v>
       </c>
       <c r="J19" s="40" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="K19" s="29" t="s">
         <v>37</v>
@@ -2972,25 +3088,25 @@
         <v>30</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E20" s="25" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F20" s="26" t="s">
         <v>33</v>
       </c>
       <c r="G20" s="27" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H20" s="27" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I20" s="27" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J20" s="40" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="K20" s="29" t="s">
         <v>37</v>
@@ -3013,25 +3129,25 @@
         <v>30</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F21" s="26" t="s">
         <v>33</v>
       </c>
       <c r="G21" s="27" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H21" s="27" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I21" s="27" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J21" s="40" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="K21" s="29" t="s">
         <v>37</v>
@@ -3054,25 +3170,25 @@
         <v>30</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E22" s="25" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F22" s="26" t="s">
         <v>33</v>
       </c>
       <c r="G22" s="27" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H22" s="27" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I22" s="27" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J22" s="40" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="K22" s="29" t="s">
         <v>37</v>
@@ -3083,7 +3199,7 @@
         <v>37</v>
       </c>
       <c r="O22" s="31" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3097,25 +3213,25 @@
         <v>30</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F23" s="26" t="s">
         <v>33</v>
       </c>
       <c r="G23" s="27" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H23" s="27" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I23" s="27" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="J23" s="40" t="s">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="K23" s="29" t="s">
         <v>37</v>
@@ -3138,25 +3254,25 @@
         <v>30</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E24" s="25" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F24" s="26" t="s">
         <v>33</v>
       </c>
       <c r="G24" s="27" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="H24" s="27" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="I24" s="27" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="J24" s="40" t="s">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="K24" s="29" t="s">
         <v>37</v>
@@ -3179,10 +3295,10 @@
         <v>30</v>
       </c>
       <c r="D25" s="32" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E25" s="25" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="F25" s="33"/>
       <c r="G25" s="27"/>
@@ -3212,10 +3328,10 @@
         <v>30</v>
       </c>
       <c r="D26" s="32" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E26" s="25" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="F26" s="33"/>
       <c r="G26" s="27"/>
@@ -3245,25 +3361,25 @@
         <v>30</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E27" s="25" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="F27" s="26" t="s">
         <v>33</v>
       </c>
       <c r="G27" s="27" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H27" s="27" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="I27" s="27" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="J27" s="40" t="s">
-        <v>64</v>
+        <v>117</v>
       </c>
       <c r="K27" s="29" t="s">
         <v>37</v>
@@ -3286,10 +3402,10 @@
         <v>30</v>
       </c>
       <c r="D28" s="32" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="E28" s="25" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="F28" s="33"/>
       <c r="G28" s="27"/>
@@ -9286,24 +9402,24 @@
         <v>15</v>
       </c>
       <c r="C1" s="42" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="D1" s="43" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="44" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B2" s="45" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C2" s="46" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="D2" s="47" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9311,69 +9427,69 @@
         <v>30</v>
       </c>
       <c r="B3" s="49" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C3" s="50" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D3" s="47" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="48" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="B4" s="49" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C4" s="50" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="D4" s="51" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="48" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B5" s="49" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C5" s="50" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="D5" s="47" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="48" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="B6" s="49" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C6" s="50" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="D6" s="51" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="52" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B7" s="53" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C7" s="54" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D7" s="51" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -10406,7 +10522,7 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="55" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B2" s="55" t="s">
         <v>37</v>
@@ -10414,7 +10530,7 @@
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="55" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B3" s="55" t="s">
         <v>40</v>
